--- a/output/PERFIN_09068336000160.xlsx
+++ b/output/PERFIN_09068336000160.xlsx
@@ -2132,10 +2132,10 @@
         <v>44165</v>
       </c>
       <c r="B159">
-        <v>3.0758501</v>
+        <v>3.0362587</v>
       </c>
       <c r="C159">
-        <v>0.03301540836149774</v>
+        <v>0.02298105350664104</v>
       </c>
     </row>
   </sheetData>

--- a/output/PERFIN_09068336000160.xlsx
+++ b/output/PERFIN_09068336000160.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PERFIN EQUITY HEDGE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1756 +383,1282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>39386</v>
       </c>
       <c r="B2">
-        <v>0.02871139999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>39416</v>
       </c>
       <c r="B3">
-        <v>0.01997179999999998</v>
-      </c>
-      <c r="C3">
         <v>-0.008495677213259167</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>39447</v>
       </c>
       <c r="B4">
-        <v>0.06505110000000003</v>
-      </c>
-      <c r="C4">
         <v>0.0441966140632517</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>39478</v>
       </c>
       <c r="B5">
-        <v>0.01475059999999995</v>
-      </c>
-      <c r="C5">
         <v>-0.04722825036282308</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>39507</v>
       </c>
       <c r="B6">
-        <v>0.06740419999999991</v>
-      </c>
-      <c r="C6">
         <v>0.05188821765663398</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>39538</v>
       </c>
       <c r="B7">
-        <v>0.02441289999999996</v>
-      </c>
-      <c r="C7">
         <v>-0.04027649507093933</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>39568</v>
       </c>
       <c r="B8">
-        <v>0.01514400000000005</v>
-      </c>
-      <c r="C8">
         <v>-0.009048011792901045</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39599</v>
       </c>
       <c r="B9">
-        <v>0.1055546000000001</v>
-      </c>
-      <c r="C9">
         <v>0.08906184738322831</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39629</v>
       </c>
       <c r="B10">
-        <v>0.1279366</v>
-      </c>
-      <c r="C10">
         <v>0.02024504262385585</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39660</v>
       </c>
       <c r="B11">
-        <v>0.1211795</v>
-      </c>
-      <c r="C11">
         <v>-0.005990673589277962</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39691</v>
       </c>
       <c r="B12">
-        <v>0.1139446</v>
-      </c>
-      <c r="C12">
         <v>-0.006452936394217068</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39721</v>
       </c>
       <c r="B13">
-        <v>0.06908660000000011</v>
-      </c>
-      <c r="C13">
         <v>-0.04026950711911514</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39752</v>
       </c>
       <c r="B14">
-        <v>0.09501040000000005</v>
-      </c>
-      <c r="C14">
         <v>0.02424855011745541</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39782</v>
       </c>
       <c r="B15">
-        <v>0.1324428</v>
-      </c>
-      <c r="C15">
         <v>0.03418451550779777</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>39813</v>
       </c>
       <c r="B16">
-        <v>0.1757485999999999</v>
-      </c>
-      <c r="C16">
         <v>0.03824104846620058</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>39844</v>
       </c>
       <c r="B17">
-        <v>0.2138911999999999</v>
-      </c>
-      <c r="C17">
         <v>0.03244111879019029</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>39872</v>
       </c>
       <c r="B18">
-        <v>0.2323488</v>
-      </c>
-      <c r="C18">
         <v>0.01520531658850488</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>39903</v>
       </c>
       <c r="B19">
-        <v>0.2467258000000001</v>
-      </c>
-      <c r="C19">
         <v>0.01166633991934751</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>39933</v>
       </c>
       <c r="B20">
-        <v>0.2927439000000001</v>
-      </c>
-      <c r="C20">
         <v>0.03691116362555413</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>39964</v>
       </c>
       <c r="B21">
-        <v>0.3226994000000001</v>
-      </c>
-      <c r="C21">
         <v>0.02317202966496312</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>39994</v>
       </c>
       <c r="B22">
-        <v>0.3482350999999999</v>
-      </c>
-      <c r="C22">
         <v>0.01930574702007104</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40025</v>
       </c>
       <c r="B23">
-        <v>0.3953993</v>
-      </c>
-      <c r="C23">
         <v>0.0349821778115702</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40056</v>
       </c>
       <c r="B24">
-        <v>0.4180651</v>
-      </c>
-      <c r="C24">
         <v>0.01624323589670706</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40086</v>
       </c>
       <c r="B25">
-        <v>0.4387466</v>
-      </c>
-      <c r="C25">
         <v>0.01458430928171062</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40117</v>
       </c>
       <c r="B26">
-        <v>0.464914</v>
-      </c>
-      <c r="C26">
         <v>0.01818763637738585</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40147</v>
       </c>
       <c r="B27">
-        <v>0.4854217999999999</v>
-      </c>
-      <c r="C27">
         <v>0.0139993200966062</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40178</v>
       </c>
       <c r="B28">
-        <v>0.5130231999999999</v>
-      </c>
-      <c r="C28">
         <v>0.01858152344337483</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40209</v>
       </c>
       <c r="B29">
-        <v>0.5387666</v>
-      </c>
-      <c r="C29">
         <v>0.01701454412595926</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>40237</v>
       </c>
       <c r="B30">
-        <v>0.5544411</v>
-      </c>
-      <c r="C30">
         <v>0.01018640513772517</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>40268</v>
       </c>
       <c r="B31">
-        <v>0.5662986999999999</v>
-      </c>
-      <c r="C31">
         <v>0.007628207977774082</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>40298</v>
       </c>
       <c r="B32">
-        <v>0.5791790999999999</v>
-      </c>
-      <c r="C32">
         <v>0.008223463378983942</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>40329</v>
       </c>
       <c r="B33">
-        <v>0.5847697000000001</v>
-      </c>
-      <c r="C33">
         <v>0.003540193762696209</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>40359</v>
       </c>
       <c r="B34">
-        <v>0.6009165000000001</v>
-      </c>
-      <c r="C34">
         <v>0.01018873594062275</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>40390</v>
       </c>
       <c r="B35">
-        <v>0.6187193</v>
-      </c>
-      <c r="C35">
         <v>0.01112038010726968</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>40421</v>
       </c>
       <c r="B36">
-        <v>0.6467795999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01733487702284142</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>40451</v>
       </c>
       <c r="B37">
-        <v>0.6676905</v>
-      </c>
-      <c r="C37">
         <v>0.01269805625476539</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>40482</v>
       </c>
       <c r="B38">
-        <v>0.692464</v>
-      </c>
-      <c r="C38">
         <v>0.01485497458911</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>40512</v>
       </c>
       <c r="B39">
-        <v>0.7138994999999999</v>
-      </c>
-      <c r="C39">
         <v>0.01266526200852724</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>40543</v>
       </c>
       <c r="B40">
-        <v>0.7348946000000001</v>
-      </c>
-      <c r="C40">
         <v>0.01224990146738492</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40574</v>
       </c>
       <c r="B41">
-        <v>0.7501138000000001</v>
-      </c>
-      <c r="C41">
         <v>0.008772406116198672</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>40602</v>
       </c>
       <c r="B42">
-        <v>0.7600228</v>
-      </c>
-      <c r="C42">
         <v>0.005661917527877369</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>40633</v>
       </c>
       <c r="B43">
-        <v>0.7699023</v>
-      </c>
-      <c r="C43">
         <v>0.005613279555242157</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>40663</v>
       </c>
       <c r="B44">
-        <v>0.7922438000000001</v>
-      </c>
-      <c r="C44">
         <v>0.01262301314597991</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>40694</v>
       </c>
       <c r="B45">
-        <v>0.7991201999999999</v>
-      </c>
-      <c r="C45">
         <v>0.003836754798649533</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>40724</v>
       </c>
       <c r="B46">
-        <v>0.8153245</v>
-      </c>
-      <c r="C46">
         <v>0.009006791208280518</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>40755</v>
       </c>
       <c r="B47">
-        <v>0.8258297999999999</v>
-      </c>
-      <c r="C47">
         <v>0.00578700942999455</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>40786</v>
       </c>
       <c r="B48">
-        <v>0.8328453</v>
-      </c>
-      <c r="C48">
         <v>0.003842362524699716</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>40816</v>
       </c>
       <c r="B49">
-        <v>0.8474339</v>
-      </c>
-      <c r="C49">
         <v>0.007959537010570283</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>40847</v>
       </c>
       <c r="B50">
-        <v>0.8719555000000001</v>
-      </c>
-      <c r="C50">
         <v>0.01327333010398912</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>40877</v>
       </c>
       <c r="B51">
-        <v>0.8808560999999999</v>
-      </c>
-      <c r="C51">
         <v>0.004754707042982531</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>40908</v>
       </c>
       <c r="B52">
-        <v>0.9122136000000001</v>
-      </c>
-      <c r="C52">
         <v>0.01667192934111239</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>40939</v>
       </c>
       <c r="B53">
-        <v>0.9355856</v>
-      </c>
-      <c r="C53">
         <v>0.01222248393171133</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>40968</v>
       </c>
       <c r="B54">
-        <v>0.9629000999999999</v>
-      </c>
-      <c r="C54">
         <v>0.01411174995308917</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>40999</v>
       </c>
       <c r="B55">
-        <v>0.9969163999999999</v>
-      </c>
-      <c r="C55">
         <v>0.01732961346326278</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41029</v>
       </c>
       <c r="B56">
-        <v>1.0166178</v>
-      </c>
-      <c r="C56">
         <v>0.009865911261983884</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41060</v>
       </c>
       <c r="B57">
-        <v>1.0310768</v>
-      </c>
-      <c r="C57">
         <v>0.007169925803491406</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41090</v>
       </c>
       <c r="B58">
-        <v>1.0522378</v>
-      </c>
-      <c r="C58">
         <v>0.01041861144787815</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41121</v>
       </c>
       <c r="B59">
-        <v>1.0923271</v>
-      </c>
-      <c r="C59">
         <v>0.01953443212087791</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41152</v>
       </c>
       <c r="B60">
-        <v>1.128803</v>
-      </c>
-      <c r="C60">
         <v>0.01743317285332679</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>41182</v>
       </c>
       <c r="B61">
-        <v>1.1501446</v>
-      </c>
-      <c r="C61">
         <v>0.01002516437641243</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>41213</v>
       </c>
       <c r="B62">
-        <v>1.185002</v>
-      </c>
-      <c r="C62">
         <v>0.01621165385807077</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>41243</v>
       </c>
       <c r="B63">
-        <v>1.2023722</v>
-      </c>
-      <c r="C63">
         <v>0.007949741007102107</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>41274</v>
       </c>
       <c r="B64">
-        <v>1.2219433</v>
-      </c>
-      <c r="C64">
         <v>0.00888637261222236</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>41305</v>
       </c>
       <c r="B65">
-        <v>1.2387228</v>
-      </c>
-      <c r="C65">
         <v>0.007551722854494125</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>41333</v>
       </c>
       <c r="B66">
-        <v>1.2583116</v>
-      </c>
-      <c r="C66">
         <v>0.008749989056259899</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>41364</v>
       </c>
       <c r="B67">
-        <v>1.2602305</v>
-      </c>
-      <c r="C67">
         <v>0.0008497055942147114</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>41394</v>
       </c>
       <c r="B68">
-        <v>1.2799771</v>
-      </c>
-      <c r="C68">
         <v>0.008736542578290152</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>41425</v>
       </c>
       <c r="B69">
-        <v>1.2998612</v>
-      </c>
-      <c r="C69">
         <v>0.008721184085576983</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>41455</v>
       </c>
       <c r="B70">
-        <v>1.2854448</v>
-      </c>
-      <c r="C70">
         <v>-0.006268378283002418</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>41486</v>
       </c>
       <c r="B71">
-        <v>1.3206647</v>
-      </c>
-      <c r="C71">
         <v>0.01541052315067937</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>41517</v>
       </c>
       <c r="B72">
-        <v>1.3377719</v>
-      </c>
-      <c r="C72">
         <v>0.007371681053277568</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>41547</v>
       </c>
       <c r="B73">
-        <v>1.3344952</v>
-      </c>
-      <c r="C73">
         <v>-0.001401633752206477</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>41578</v>
       </c>
       <c r="B74">
-        <v>1.3542209</v>
-      </c>
-      <c r="C74">
         <v>0.008449663978747912</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>41608</v>
       </c>
       <c r="B75">
-        <v>1.3777079</v>
-      </c>
-      <c r="C75">
         <v>0.009976548929626627</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>41639</v>
       </c>
       <c r="B76">
-        <v>1.3813354</v>
-      </c>
-      <c r="C76">
         <v>0.001525628947105062</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>41670</v>
       </c>
       <c r="B77">
-        <v>1.3560144</v>
-      </c>
-      <c r="C77">
         <v>-0.01063310947294549</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>41698</v>
       </c>
       <c r="B78">
-        <v>1.3622493</v>
-      </c>
-      <c r="C78">
         <v>0.002646376015358998</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>41729</v>
       </c>
       <c r="B79">
-        <v>1.3716468</v>
-      </c>
-      <c r="C79">
         <v>0.003978199930041226</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>41759</v>
       </c>
       <c r="B80">
-        <v>1.3846496</v>
-      </c>
-      <c r="C80">
         <v>0.005482603902065009</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>41790</v>
       </c>
       <c r="B81">
-        <v>1.4109447</v>
-      </c>
-      <c r="C81">
         <v>0.01102681920228443</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>41820</v>
       </c>
       <c r="B82">
-        <v>1.4202206</v>
-      </c>
-      <c r="C82">
         <v>0.003847413007855405</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>41851</v>
       </c>
       <c r="B83">
-        <v>1.440274</v>
-      </c>
-      <c r="C83">
         <v>0.008285773619148618</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>41882</v>
       </c>
       <c r="B84">
-        <v>1.4495652</v>
-      </c>
-      <c r="C84">
         <v>0.003807441295526681</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>41912</v>
       </c>
       <c r="B85">
-        <v>1.4599648</v>
-      </c>
-      <c r="C85">
         <v>0.004245488138058029</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>41943</v>
       </c>
       <c r="B86">
-        <v>1.4884863</v>
-      </c>
-      <c r="C86">
         <v>0.01159427159282944</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>41973</v>
       </c>
       <c r="B87">
-        <v>1.5273214</v>
-      </c>
-      <c r="C87">
         <v>0.01560591271890877</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42004</v>
       </c>
       <c r="B88">
-        <v>1.5275709</v>
-      </c>
-      <c r="C88">
         <v>9.87211203133942e-05</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42035</v>
       </c>
       <c r="B89">
-        <v>1.5120623</v>
-      </c>
-      <c r="C89">
         <v>-0.006135772492079195</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42063</v>
       </c>
       <c r="B90">
-        <v>1.5454128</v>
-      </c>
-      <c r="C90">
         <v>0.01327614366888885</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42094</v>
       </c>
       <c r="B91">
-        <v>1.5422398</v>
-      </c>
-      <c r="C91">
         <v>-0.001246556157806666</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42124</v>
       </c>
       <c r="B92">
-        <v>1.5634345</v>
-      </c>
-      <c r="C92">
         <v>0.008337018404007468</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42155</v>
       </c>
       <c r="B93">
-        <v>1.5802302</v>
-      </c>
-      <c r="C93">
         <v>0.006552030098682105</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>42185</v>
       </c>
       <c r="B94">
-        <v>1.6052176</v>
-      </c>
-      <c r="C94">
         <v>0.00968417469107985</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>42216</v>
       </c>
       <c r="B95">
-        <v>1.6413394</v>
-      </c>
-      <c r="C95">
         <v>0.01386517579184177</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>42247</v>
       </c>
       <c r="B96">
-        <v>1.6382827</v>
-      </c>
-      <c r="C96">
         <v>-0.001157253778140022</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>42277</v>
       </c>
       <c r="B97">
-        <v>1.6509088</v>
-      </c>
-      <c r="C97">
         <v>0.004785726715336391</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>42308</v>
       </c>
       <c r="B98">
-        <v>1.6522997</v>
-      </c>
-      <c r="C98">
         <v>0.0005246879862483844</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>42338</v>
       </c>
       <c r="B99">
-        <v>1.6771124</v>
-      </c>
-      <c r="C99">
         <v>0.009355164501206215</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>42369</v>
       </c>
       <c r="B100">
-        <v>1.6981321</v>
-      </c>
-      <c r="C100">
         <v>0.007851631481741395</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>42400</v>
       </c>
       <c r="B101">
-        <v>1.7168672</v>
-      </c>
-      <c r="C101">
         <v>0.006943729701003098</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>42429</v>
       </c>
       <c r="B102">
-        <v>1.7364522</v>
-      </c>
-      <c r="C102">
         <v>0.007208670339131862</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>42460</v>
       </c>
       <c r="B103">
-        <v>1.790477</v>
-      </c>
-      <c r="C103">
         <v>0.01974264341251786</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>42490</v>
       </c>
       <c r="B104">
-        <v>1.8334238</v>
-      </c>
-      <c r="C104">
         <v>0.01539048700275969</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>42521</v>
       </c>
       <c r="B105">
-        <v>1.8698657</v>
-      </c>
-      <c r="C105">
         <v>0.0128614364007249</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>42551</v>
       </c>
       <c r="B106">
-        <v>1.924448</v>
-      </c>
-      <c r="C106">
         <v>0.0190191129849735</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>42582</v>
       </c>
       <c r="B107">
-        <v>1.9190181</v>
-      </c>
-      <c r="C107">
         <v>-0.001856726465986003</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>42613</v>
       </c>
       <c r="B108">
-        <v>1.9764846</v>
-      </c>
-      <c r="C108">
         <v>0.01968692828591911</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>42643</v>
       </c>
       <c r="B109">
-        <v>2.0528164</v>
-      </c>
-      <c r="C109">
         <v>0.02564495042238768</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>42674</v>
       </c>
       <c r="B110">
-        <v>2.1322526</v>
-      </c>
-      <c r="C110">
         <v>0.02602062803383776</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>42704</v>
       </c>
       <c r="B111">
-        <v>2.1522248</v>
-      </c>
-      <c r="C111">
         <v>0.006376305665769078</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>42735</v>
       </c>
       <c r="B112">
-        <v>2.2741179</v>
-      </c>
-      <c r="C112">
         <v>0.03866891092285041</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>42766</v>
       </c>
       <c r="B113">
-        <v>2.3396458</v>
-      </c>
-      <c r="C113">
         <v>0.02001390970068617</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>42794</v>
       </c>
       <c r="B114">
-        <v>2.3990769</v>
-      </c>
-      <c r="C114">
         <v>0.0177956297042039</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>42825</v>
       </c>
       <c r="B115">
-        <v>2.4302718</v>
-      </c>
-      <c r="C115">
         <v>0.009177462269241321</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>42855</v>
       </c>
       <c r="B116">
-        <v>2.4465745</v>
-      </c>
-      <c r="C116">
         <v>0.004752597155712301</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>42886</v>
       </c>
       <c r="B117">
-        <v>2.4816158</v>
-      </c>
-      <c r="C117">
         <v>0.01016699334368076</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>42916</v>
       </c>
       <c r="B118">
-        <v>2.5060713</v>
-      </c>
-      <c r="C118">
         <v>0.007024181128773455</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>42947</v>
       </c>
       <c r="B119">
-        <v>2.5377528</v>
-      </c>
-      <c r="C119">
         <v>0.009036182464401188</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>42978</v>
       </c>
       <c r="B120">
-        <v>2.5822447</v>
-      </c>
-      <c r="C120">
         <v>0.01257631680766402</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43008</v>
       </c>
       <c r="B121">
-        <v>2.6322806</v>
-      </c>
-      <c r="C121">
         <v>0.01396775044429543</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43039</v>
       </c>
       <c r="B122">
-        <v>2.6625457</v>
-      </c>
-      <c r="C122">
         <v>0.008332258251193325</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43069</v>
       </c>
       <c r="B123">
-        <v>2.6547942</v>
-      </c>
-      <c r="C123">
         <v>-0.002116424103595471</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43100</v>
       </c>
       <c r="B124">
-        <v>2.695879</v>
-      </c>
-      <c r="C124">
         <v>0.01124134431427093</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43131</v>
       </c>
       <c r="B125">
-        <v>2.7867588</v>
-      </c>
-      <c r="C125">
         <v>0.02458949548943568</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43159</v>
       </c>
       <c r="B126">
-        <v>2.7972519</v>
-      </c>
-      <c r="C126">
         <v>0.002770997719738544</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>43190</v>
       </c>
       <c r="B127">
-        <v>2.8167134</v>
-      </c>
-      <c r="C127">
         <v>0.005125153798724691</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>43220</v>
       </c>
       <c r="B128">
-        <v>2.8561768</v>
-      </c>
-      <c r="C128">
         <v>0.01033962885450102</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>43251</v>
       </c>
       <c r="B129">
-        <v>2.7749904</v>
-      </c>
-      <c r="C129">
         <v>-0.02105359899473491</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>43281</v>
       </c>
       <c r="B130">
-        <v>2.7611593</v>
-      </c>
-      <c r="C130">
         <v>-0.003663876867077587</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>43312</v>
       </c>
       <c r="B131">
-        <v>2.8396401</v>
-      </c>
-      <c r="C131">
         <v>0.02086611965624541</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>43343</v>
       </c>
       <c r="B132">
-        <v>2.7979127</v>
-      </c>
-      <c r="C132">
         <v>-0.0108675289644985</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>43373</v>
       </c>
       <c r="B133">
-        <v>2.8060081</v>
-      </c>
-      <c r="C133">
         <v>0.002131539253127146</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>43404</v>
       </c>
       <c r="B134">
-        <v>2.9414118</v>
-      </c>
-      <c r="C134">
         <v>0.03557630368679465</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>43434</v>
       </c>
       <c r="B135">
-        <v>3.0013559</v>
-      </c>
-      <c r="C135">
         <v>0.01520878889133082</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>43465</v>
       </c>
       <c r="B136">
-        <v>3.0315161</v>
-      </c>
-      <c r="C136">
         <v>0.007537494977639891</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>43496</v>
       </c>
       <c r="B137">
-        <v>3.105272</v>
-      </c>
-      <c r="C137">
         <v>0.01829482958036555</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>43524</v>
       </c>
       <c r="B138">
-        <v>3.0993064</v>
-      </c>
-      <c r="C138">
         <v>-0.001453155844485021</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>43555</v>
       </c>
       <c r="B139">
-        <v>3.0731461</v>
-      </c>
-      <c r="C139">
         <v>-0.006381640562413193</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>43585</v>
       </c>
       <c r="B140">
-        <v>3.1779406</v>
-      </c>
-      <c r="C140">
         <v>0.02572814660392386</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>43616</v>
       </c>
       <c r="B141">
-        <v>3.2769742</v>
-      </c>
-      <c r="C141">
         <v>0.02370392724109083</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>43646</v>
       </c>
       <c r="B142">
-        <v>3.3678948</v>
-      </c>
-      <c r="C142">
         <v>0.02125815956523658</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>43677</v>
       </c>
       <c r="B143">
-        <v>3.2846554</v>
-      </c>
-      <c r="C143">
         <v>-0.01905709817003831</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>43708</v>
       </c>
       <c r="B144">
-        <v>3.2804835</v>
-      </c>
-      <c r="C144">
         <v>-0.0009736839046613488</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>43738</v>
       </c>
       <c r="B145">
-        <v>3.3030123</v>
-      </c>
-      <c r="C145">
         <v>0.005263143754671518</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>43769</v>
       </c>
       <c r="B146">
-        <v>3.4140488</v>
-      </c>
-      <c r="C146">
         <v>0.0258043650026285</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>43799</v>
       </c>
       <c r="B147">
-        <v>3.4954623</v>
-      </c>
-      <c r="C147">
         <v>0.01844417759948636</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>43830</v>
       </c>
       <c r="B148">
-        <v>3.6263001</v>
-      </c>
-      <c r="C148">
         <v>0.02910441491189908</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>43861</v>
       </c>
       <c r="B149">
-        <v>3.6265164</v>
-      </c>
-      <c r="C149">
         <v>4.675442477242164e-05</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>43890</v>
       </c>
       <c r="B150">
-        <v>3.5534864</v>
-      </c>
-      <c r="C150">
         <v>-0.01578509480696966</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>43921</v>
       </c>
       <c r="B151">
-        <v>2.516467</v>
-      </c>
-      <c r="C151">
         <v>-0.2277418463355901</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>43951</v>
       </c>
       <c r="B152">
-        <v>2.8087912</v>
-      </c>
-      <c r="C152">
         <v>0.08313008482661721</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>43982</v>
       </c>
       <c r="B153">
-        <v>2.9904635</v>
-      </c>
-      <c r="C153">
         <v>0.04769815158153068</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>44012</v>
       </c>
       <c r="B154">
-        <v>3.1536391</v>
-      </c>
-      <c r="C154">
         <v>0.04089139018562626</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>44043</v>
       </c>
       <c r="B155">
-        <v>3.2524583</v>
-      </c>
-      <c r="C155">
         <v>0.02379099330030843</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>44074</v>
       </c>
       <c r="B156">
-        <v>3.2218191</v>
-      </c>
-      <c r="C156">
         <v>-0.007205055955516237</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>44104</v>
       </c>
       <c r="B157">
-        <v>3.0233634</v>
-      </c>
-      <c r="C157">
         <v>-0.04700715385933996</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>44135</v>
       </c>
       <c r="B158">
-        <v>2.945585</v>
-      </c>
-      <c r="C158">
         <v>-0.01933168651879669</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>44165</v>
       </c>
       <c r="B159">
-        <v>3.0362587</v>
-      </c>
-      <c r="C159">
-        <v>0.02298105350664104</v>
+        <v>0.01239752786975834</v>
       </c>
     </row>
   </sheetData>
